--- a/tumlknexpectimax/excel_data/input_data_residential_munich_phillipson.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential_munich_phillipson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565"/>
+    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1064,7 +1063,7 @@
                   <c:v>5940</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31200</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2000</c:v>
@@ -1165,7 +1164,7 @@
                   <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75000</c:v>
+                  <c:v>75130</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>210130</c:v>
@@ -1216,11 +1215,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="197527040"/>
-        <c:axId val="85936960"/>
+        <c:axId val="61721088"/>
+        <c:axId val="61207616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197527040"/>
+        <c:axId val="61721088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,14 +1241,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85936960"/>
+        <c:crossAx val="61207616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85936960"/>
+        <c:axId val="61207616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,21 +1278,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197527040"/>
+        <c:crossAx val="61721088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1324,7 +1320,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1368,21 +1363,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CAPEX!$R$3:$U$3</c:f>
+              <c:f>CAPEX!$R$11:$U$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>83454.683914942696</c:v>
+                  <c:v>68386.565042534159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>286120</c:v>
+                  <c:v>161650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1407,7 +1402,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1462,6 +1456,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1543,7 +1538,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20000</c:v>
+                  <c:v>36062.342937580564</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19283.042118970367</c:v>
@@ -1602,11 +1597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87414272"/>
-        <c:axId val="85939840"/>
+        <c:axId val="62765568"/>
+        <c:axId val="62816832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87414272"/>
+        <c:axId val="62765568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85939840"/>
+        <c:crossAx val="62816832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1624,7 +1619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85939840"/>
+        <c:axId val="62816832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,13 +1642,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87414272"/>
+        <c:crossAx val="62765568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1685,6 +1681,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1817,11 +1814,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87416320"/>
-        <c:axId val="85941568"/>
+        <c:axId val="62414848"/>
+        <c:axId val="62818560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87416320"/>
+        <c:axId val="62414848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,13 +1840,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85941568"/>
+        <c:crossAx val="62818560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1857,7 +1855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85941568"/>
+        <c:axId val="62818560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,13 +1878,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87416320"/>
+        <c:crossAx val="62414848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2428,11 +2427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88015872"/>
-        <c:axId val="86074496"/>
+        <c:axId val="62415360"/>
+        <c:axId val="62820288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88015872"/>
+        <c:axId val="62415360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86074496"/>
+        <c:crossAx val="62820288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2450,7 +2449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86074496"/>
+        <c:axId val="62820288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,7 +2460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88015872"/>
+        <c:crossAx val="62415360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2502,7 +2501,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2537,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2578,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2614,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2655,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,7 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="R3" sqref="R3:U15"/>
     </sheetView>
   </sheetViews>
@@ -3098,7 +3097,7 @@
       </c>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>377226.75237167848</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>165269.06088094553</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3311,18 +3310,18 @@
         <v>3900</v>
       </c>
       <c r="U5" s="12">
-        <v>75000</v>
+        <v>75130</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="0"/>
-        <v>78900</v>
+        <v>79030</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="1"/>
-        <v>134887.46299989594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>135017.46299989594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>270017.46299989591</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>304487.06088094553</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>166446.75237167845</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>169514.06088094553</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3682,21 +3681,21 @@
         <v>4383.6369516535042</v>
       </c>
       <c r="T10" s="12">
-        <v>31200</v>
+        <v>7800</v>
       </c>
       <c r="U10" s="12">
         <v>76300</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" si="0"/>
-        <v>107500</v>
+        <v>84100</v>
       </c>
       <c r="W10" s="10">
         <f t="shared" si="1"/>
-        <v>163487.46299989594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>140087.46299989594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>235814.83355361945</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>169033.92770707383</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>298246.6077070738</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -3993,7 +3992,7 @@
         <v>250964.83355361945</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -4068,13 +4067,13 @@
         <v>159383.92770707383</v>
       </c>
     </row>
-    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="16:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="P27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q42" s="5" t="s">
         <v>54</v>
       </c>
@@ -4088,12 +4087,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q44" t="s">
         <v>57</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R45" t="s">
         <v>59</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q46" t="s">
         <v>62</v>
       </c>
@@ -8520,7 +8519,7 @@
         <v>37780.731862074172</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15781,7 +15780,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15803,7 +15802,7 @@
     <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -15850,7 +15849,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -15867,7 +15866,7 @@
       </c>
       <c r="E2">
         <f>CAPEX!$W5</f>
-        <v>134887.46299989594</v>
+        <v>135017.46299989594</v>
       </c>
       <c r="F2">
         <f>CAPEX!$W6</f>
@@ -15887,7 +15886,7 @@
       </c>
       <c r="J2">
         <f>CAPEX!$W10</f>
-        <v>163487.46299989594</v>
+        <v>140087.46299989594</v>
       </c>
       <c r="K2">
         <f>CAPEX!$W11</f>
@@ -15910,7 +15909,7 @@
         <v>159383.92770707383</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -15962,7 +15961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -16011,7 +16010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -16029,7 +16028,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>135129.99999999997</v>
+        <v>134999.99999999997</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -16042,7 +16041,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>28600</v>
+        <v>5070</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -16060,7 +16059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -16107,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -16154,7 +16153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -16201,7 +16200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -16249,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -16267,7 +16266,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>106529.99999999997</v>
+        <v>129929.99999999997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -16297,7 +16296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -16346,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -16395,7 +16394,7 @@
         <v>-9650</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -16442,7 +16441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -16490,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -16551,8 +16550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16578,13 +16577,14 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>20000</v>
+        <f>AVERAGE(B3:B15)</f>
+        <v>36062.342937580564</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -19051,7 +19051,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -19190,7 +19190,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19335,7 +19335,7 @@
         <v>12384</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>17565</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>20675</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>21341</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19451,7 +19451,7 @@
         <v>21372</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>21377</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>21380</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19538,7 +19538,7 @@
         <v>21382</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>21383</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2035</v>
       </c>

--- a/tumlknexpectimax/excel_data/input_data_residential_munich_phillipson.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential_munich_phillipson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="945" windowWidth="15105" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -732,6 +732,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -810,7 +811,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>83454.683914942696</c:v>
+                  <c:v>46411.622601241266</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>83454.683914942696</c:v>
@@ -825,7 +826,7 @@
                   <c:v>83454.683914942696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83454.683914942696</c:v>
+                  <c:v>46411.622601241266</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>83454.683914942696</c:v>
@@ -926,7 +927,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3844.3769660028456</c:v>
@@ -941,7 +942,7 @@
                   <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3844.3769660028456</c:v>
@@ -956,13 +957,13 @@
                   <c:v>3663.5010909611156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7526.1810909611158</c:v>
+                  <c:v>16649.727205824103</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3663.5010909611156</c:v>
+                  <c:v>1452.7127519276221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,7 +1052,7 @@
                   <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3900</c:v>
+                  <c:v>27300</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5940</c:v>
@@ -1167,13 +1168,13 @@
                   <c:v>75130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210130</c:v>
+                  <c:v>210910</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>211248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74640</c:v>
+                  <c:v>323440</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>76275</c:v>
@@ -1188,7 +1189,7 @@
                   <c:v>92100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213050</c:v>
+                  <c:v>153050</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>170800</c:v>
@@ -1215,11 +1216,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="61721088"/>
-        <c:axId val="61207616"/>
+        <c:axId val="62114304"/>
+        <c:axId val="61592640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61721088"/>
+        <c:axId val="62114304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,13 +1242,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61207616"/>
+        <c:crossAx val="61592640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +1257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61207616"/>
+        <c:axId val="61592640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,19 +1280,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61721088"/>
+        <c:crossAx val="62114304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1320,6 +1324,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1402,6 +1407,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1538,46 +1544,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>36062.342937580564</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042118970367</c:v>
+                  <c:v>19283.042119999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823692218881</c:v>
+                  <c:v>43709.823689999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.4220525376</c:v>
+                  <c:v>44248.422050000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>19212.762709999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.918689039821</c:v>
+                  <c:v>11938.91869</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.71612182937</c:v>
+                  <c:v>50983.716119999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400003029</c:v>
+                  <c:v>47726.863400000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169209609</c:v>
+                  <c:v>48220.289169999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867713520049</c:v>
+                  <c:v>37682.867709999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.8721002112</c:v>
+                  <c:v>44827.872100000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.814930199653</c:v>
+                  <c:v>12139.81493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760442287</c:v>
+                  <c:v>47419.574760000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50088.476920599649</c:v>
+                  <c:v>50088.476920000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,11 +1603,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="62765568"/>
-        <c:axId val="62816832"/>
+        <c:axId val="63060480"/>
+        <c:axId val="62882368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62765568"/>
+        <c:axId val="63060480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +1617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62816832"/>
+        <c:crossAx val="62882368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1619,7 +1625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62816832"/>
+        <c:axId val="62882368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62765568"/>
+        <c:crossAx val="63060480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,11 +1820,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="62414848"/>
-        <c:axId val="62818560"/>
+        <c:axId val="62550016"/>
+        <c:axId val="62884096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62414848"/>
+        <c:axId val="62550016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,7 +1853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62818560"/>
+        <c:crossAx val="62884096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1855,7 +1861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62818560"/>
+        <c:axId val="62884096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62414848"/>
+        <c:crossAx val="62550016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2427,11 +2433,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="62415360"/>
-        <c:axId val="62820288"/>
+        <c:axId val="62550528"/>
+        <c:axId val="62885824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62415360"/>
+        <c:axId val="62550528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,7 +2447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62820288"/>
+        <c:crossAx val="62885824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2449,7 +2455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62820288"/>
+        <c:axId val="62885824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62415360"/>
+        <c:crossAx val="62550528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2501,7 +2507,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2543,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2584,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2620,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2661,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:U15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3093,11 +3099,13 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9">
-        <v>100000</v>
-      </c>
-      <c r="W2" s="10"/>
-    </row>
-    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="W2" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3153,10 +3161,10 @@
         <v>685372.28279667499</v>
       </c>
       <c r="R3" s="12">
-        <v>83454.683914942696</v>
+        <v>46411.622601241266</v>
       </c>
       <c r="S3" s="12">
-        <v>5652.0684567357575</v>
+        <v>1539.8347599557078</v>
       </c>
       <c r="T3" s="12">
         <v>2000</v>
@@ -3170,10 +3178,10 @@
       </c>
       <c r="W3" s="10">
         <f>R3+S3+T3+U3</f>
-        <v>377226.75237167848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>336071.45736119698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3249,7 +3257,7 @@
         <v>165269.06088094553</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3321,7 +3329,7 @@
         <v>135017.46299989594</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -3384,21 +3392,21 @@
         <v>4383.6369516535042</v>
       </c>
       <c r="T6" s="12">
-        <v>3900</v>
+        <v>27300</v>
       </c>
       <c r="U6" s="12">
-        <v>210130</v>
+        <v>210910</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="0"/>
-        <v>214030</v>
+        <v>238210</v>
       </c>
       <c r="W6" s="10">
         <f t="shared" si="1"/>
-        <v>270017.46299989591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>294197.46299989591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3474,7 +3482,7 @@
         <v>304487.06088094553</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3528,27 +3536,27 @@
         <v>685372.28279667499</v>
       </c>
       <c r="R8" s="12">
-        <v>83454.683914942696</v>
+        <v>46411.622601241266</v>
       </c>
       <c r="S8" s="12">
-        <v>5652.0684567357575</v>
+        <v>1539.8347599557078</v>
       </c>
       <c r="T8" s="12">
         <v>2700</v>
       </c>
       <c r="U8" s="12">
-        <v>74640</v>
+        <v>323440</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="0"/>
-        <v>77340</v>
+        <v>326140</v>
       </c>
       <c r="W8" s="10">
         <f t="shared" si="1"/>
-        <v>166446.75237167845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>374091.45736119698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -3622,7 +3630,7 @@
         <v>169514.06088094553</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3695,7 +3703,7 @@
         <v>140087.46299989594</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3769,7 +3777,7 @@
         <v>235814.83355361945</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3843,7 +3851,7 @@
         <v>169033.92770707383</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -3901,24 +3909,24 @@
         <v>68870.426616112716</v>
       </c>
       <c r="S13" s="12">
-        <v>7526.1810909611158</v>
+        <v>16649.727205824103</v>
       </c>
       <c r="T13" s="12">
         <v>8800</v>
       </c>
       <c r="U13" s="12">
-        <v>213050</v>
+        <v>153050</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" si="0"/>
-        <v>221850</v>
+        <v>161850</v>
       </c>
       <c r="W13" s="10">
         <f t="shared" si="1"/>
-        <v>298246.6077070738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>247370.15382193681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -3992,7 +4000,7 @@
         <v>250964.83355361945</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -4050,7 +4058,7 @@
         <v>68870.426616112716</v>
       </c>
       <c r="S15" s="12">
-        <v>3663.5010909611156</v>
+        <v>1452.7127519276221</v>
       </c>
       <c r="T15" s="12">
         <v>8800</v>
@@ -4064,7 +4072,7 @@
       </c>
       <c r="W15" s="10">
         <f t="shared" si="1"/>
-        <v>159383.92770707383</v>
+        <v>157173.13936804034</v>
       </c>
     </row>
     <row r="27" spans="16:16" ht="14.45" x14ac:dyDescent="0.3">
@@ -15858,7 +15866,7 @@
       </c>
       <c r="C2">
         <f>CAPEX!$W3</f>
-        <v>377226.75237167848</v>
+        <v>336071.45736119698</v>
       </c>
       <c r="D2">
         <f>CAPEX!$W4</f>
@@ -15870,7 +15878,7 @@
       </c>
       <c r="F2">
         <f>CAPEX!$W6</f>
-        <v>270017.46299989591</v>
+        <v>294197.46299989591</v>
       </c>
       <c r="G2">
         <f>CAPEX!$W7</f>
@@ -15878,7 +15886,7 @@
       </c>
       <c r="H2">
         <f>CAPEX!$W8</f>
-        <v>166446.75237167845</v>
+        <v>374091.45736119698</v>
       </c>
       <c r="I2">
         <f>CAPEX!$W9</f>
@@ -15898,7 +15906,7 @@
       </c>
       <c r="M2">
         <f>CAPEX!$W13</f>
-        <v>298246.6077070738</v>
+        <v>247370.15382193681</v>
       </c>
       <c r="N2">
         <f>CAPEX!$W14</f>
@@ -15906,7 +15914,7 @@
       </c>
       <c r="O2">
         <f>CAPEX!$W15</f>
-        <v>159383.92770707383</v>
+        <v>157173.13936804034</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -15936,7 +15944,7 @@
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>-210780.00000000003</v>
+        <v>38020</v>
       </c>
       <c r="I3">
         <f>D3+(I2-D2)</f>
@@ -16028,7 +16036,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>134999.99999999997</v>
+        <v>159179.99999999997</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -16266,7 +16274,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>129929.99999999997</v>
+        <v>154109.99999999997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -16384,14 +16392,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>129212.67999999996</v>
+        <v>78336.226114862977</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>-9650</v>
+        <v>-11860.78833903349</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -16480,7 +16488,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>47281.774153454346</v>
+        <v>-3594.6797316826414</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -16528,7 +16536,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>138862.67999999996</v>
+        <v>90197.014453896467</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -16551,7 +16559,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16577,8 +16585,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(B3:B15)</f>
-        <v>36062.342937580564</v>
+        <v>10000</v>
       </c>
       <c r="C2">
         <v>3.6</v>
@@ -16589,7 +16596,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="13">
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="C3">
         <v>7.2</v>
@@ -16600,7 +16607,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="13">
-        <v>43709.823692218881</v>
+        <v>43709.823689999997</v>
       </c>
       <c r="C4">
         <v>9.6</v>
@@ -16611,7 +16618,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="13">
-        <v>44248.4220525376</v>
+        <v>44248.422050000001</v>
       </c>
       <c r="C5">
         <v>9.6</v>
@@ -16622,7 +16629,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="13">
-        <v>10540.776519765759</v>
+        <v>19212.762709999999</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -16633,7 +16640,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="13">
-        <v>11938.918689039821</v>
+        <v>11938.91869</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -16644,7 +16651,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="13">
-        <v>50983.71612182937</v>
+        <v>50983.716119999997</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -16655,7 +16662,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="14">
-        <v>47726.863400003029</v>
+        <v>47726.863400000002</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -16666,7 +16673,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="14">
-        <v>48220.289169209609</v>
+        <v>48220.289169999996</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -16677,7 +16684,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="14">
-        <v>37682.867713520049</v>
+        <v>37682.867709999999</v>
       </c>
       <c r="C11">
         <v>7.2</v>
@@ -16688,7 +16695,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="13">
-        <v>44827.8721002112</v>
+        <v>44827.872100000001</v>
       </c>
       <c r="C12">
         <v>9.6</v>
@@ -16699,7 +16706,7 @@
         <v>75</v>
       </c>
       <c r="B13" s="13">
-        <v>12139.814930199653</v>
+        <v>12139.81493</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -16710,7 +16717,7 @@
         <v>76</v>
       </c>
       <c r="B14" s="13">
-        <v>47419.574760442287</v>
+        <v>47419.574760000003</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -16721,7 +16728,7 @@
         <v>77</v>
       </c>
       <c r="B15" s="15">
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -16883,31 +16890,31 @@
       </c>
       <c r="U2">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-18591.842118970366</v>
+        <v>-18591.842119999998</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-18591.842118970366</v>
+        <v>-18591.842119999998</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-18591.842118970366</v>
+        <v>-18591.842119999998</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-18663.842118970366</v>
+        <v>-18663.842119999998</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-18663.842118970366</v>
+        <v>-18663.842119999998</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-18663.842118970366</v>
+        <v>-18663.842119999998</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16915,27 +16922,27 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-18591.842118970366</v>
+        <v>-18591.842119999998</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-18591.842118970366</v>
+        <v>-18591.842119999998</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-18591.842118970366</v>
+        <v>-18591.842119999998</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-18663.842118970366</v>
+        <v>-18663.842119999998</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-18663.842118970366</v>
+        <v>-18663.842119999998</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-18663.842118970366</v>
+        <v>-18663.842119999998</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16985,31 +16992,31 @@
       </c>
       <c r="U3">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-18361.442118970368</v>
+        <v>-18361.44212</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-18332.642118970365</v>
+        <v>-18332.642119999997</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-17994.242118970367</v>
+        <v>-17994.242119999999</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-18455.042118970367</v>
+        <v>-18455.042119999998</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-18433.442118970368</v>
+        <v>-18433.44212</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-18123.842118970366</v>
+        <v>-18123.842119999998</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17017,27 +17024,27 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-16692.220108154881</v>
+        <v>-16692.220109090907</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-16666.038289973058</v>
+        <v>-16666.038290909088</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-16358.401926336697</v>
+        <v>-16358.401927272726</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-16777.311017245785</v>
+        <v>-16777.311018181816</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-16757.674653609425</v>
+        <v>-16757.674654545455</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-16476.220108154877</v>
+        <v>-16476.220109090907</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17087,31 +17094,31 @@
       </c>
       <c r="U4">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-18044.642118970365</v>
+        <v>-18044.642119999997</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>-17965.442118970368</v>
+        <v>-17965.44212</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>-16820.642118970365</v>
+        <v>-16820.642119999997</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-18174.242118970367</v>
+        <v>-18174.242119999999</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-18102.242118970367</v>
+        <v>-18102.242119999999</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>-17072.642118970365</v>
+        <v>-17072.642119999997</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -17119,27 +17126,27 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-14912.927371049887</v>
+        <v>-14912.927371900822</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>-14847.472825595343</v>
+        <v>-14847.472826446279</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>-13901.357123116002</v>
+        <v>-13901.357123966938</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-15020.034809066417</v>
+        <v>-15020.034809917353</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-14960.530676835013</v>
+        <v>-14960.530677685949</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>-14109.621585925921</v>
+        <v>-14109.621586776855</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17196,31 +17203,31 @@
       </c>
       <c r="U5">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>-17605.442118970368</v>
+        <v>-17605.44212</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>-17432.642118970365</v>
+        <v>-17432.642119999997</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>-14523.842118970366</v>
+        <v>-14523.842119999998</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>-17778.242118970367</v>
+        <v>-17778.242119999999</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>-17619.842118970366</v>
+        <v>-17619.842119999998</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>-15006.242118970367</v>
+        <v>-15006.242119999999</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -17228,27 +17235,27 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>-13227.22924039847</v>
+        <v>-13227.229241172046</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>-13097.402042802674</v>
+        <v>-13097.402043576252</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>-10911.977549940166</v>
+        <v>-10911.977550713744</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>-13357.056437994261</v>
+        <v>-13357.056438767839</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>-13238.04817353145</v>
+        <v>-13238.048174305028</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>-11274.411809895089</v>
+        <v>-11274.411810668666</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17305,31 +17312,31 @@
       </c>
       <c r="U6">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>-16993.442118970368</v>
+        <v>-16993.44212</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>-16669.442118970368</v>
+        <v>-16669.44212</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>-10038.242118970365</v>
+        <v>-10038.242119999997</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>-17223.842118970366</v>
+        <v>-17223.842119999998</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>-16935.842118970366</v>
+        <v>-16935.842119999998</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>-10967.042118970367</v>
+        <v>-10967.042119999998</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -17337,27 +17344,27 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>-11606.749620224276</v>
+        <v>-11606.749620927529</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>-11385.453260685994</v>
+        <v>-11385.453261389246</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>-6856.2544354691363</v>
+        <v>-6856.2544361723885</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>-11764.115920340388</v>
+        <v>-11764.11592104364</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>-11567.408045195247</v>
+        <v>-11567.408045898499</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>-7490.6373328122145</v>
+        <v>-7490.6373335154676</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17414,31 +17421,31 @@
       </c>
       <c r="U7">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>-16151.042118970367</v>
+        <v>-16151.042119999998</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>-15582.242118970367</v>
+        <v>-15582.242119999999</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>-1477.4421189703644</v>
+        <v>-1477.4421199999961</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>-16467.842118970366</v>
+        <v>-16467.842119999998</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>-15956.642118970367</v>
+        <v>-15956.642119999999</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>-3263.0421189703666</v>
+        <v>-3263.0421199999982</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -17446,27 +17453,27 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>-10028.526441295217</v>
+        <v>-10028.526441934537</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>-9675.3463927391695</v>
+        <v>-9675.3463933784897</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>-917.37531525439999</v>
+        <v>-917.37531589372031</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>-10225.234316440357</v>
+        <v>-10225.234317079678</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>-9907.8193360925179</v>
+        <v>-9907.8193367318381</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>-2026.0924297088284</v>
+        <v>-2026.0924303481486</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17523,31 +17530,31 @@
       </c>
       <c r="U8">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>-15006.242118970367</v>
+        <v>-15006.242119999999</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>-14048.642118970365</v>
+        <v>-14048.642119999997</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>14268.957881029633</v>
+        <v>14268.957880000002</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>-15438.242118970367</v>
+        <v>-15438.242119999999</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>-14574.242118970367</v>
+        <v>-14574.242119999999</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>10913.757881029633</v>
+        <v>10913.757880000001</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -17555,27 +17562,27 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>-8470.632464233724</v>
+        <v>-8470.6324648149257</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>-7930.0922288142265</v>
+        <v>-7930.0922293954263</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>8054.4547328766148</v>
+        <v>8054.454732295414</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>-8714.4852020169565</v>
+        <v>-8714.4852025981563</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>-8226.7797264504934</v>
+        <v>-8226.7797270316933</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>6160.5318027601807</v>
+        <v>6160.5318021789808</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17631,31 +17638,31 @@
       </c>
       <c r="U9">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>-13429.442118970366</v>
+        <v>-13429.442119999998</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>-11888.642118970365</v>
+        <v>-11888.642119999997</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>41002.557881029628</v>
+        <v>41002.55788</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>-14019.842118970366</v>
+        <v>-14019.842119999998</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>-12630.242118970367</v>
+        <v>-12630.242119999999</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>34968.957881029637</v>
+        <v>34968.957880000002</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -17663,27 +17670,27 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>-6891.4272466590237</v>
+        <v>-6891.4272471873883</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>-6100.7532180891512</v>
+        <v>-6100.7532186175149</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>21040.795444874788</v>
+        <v>21040.795444346426</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>-7194.3957996624331</v>
+        <v>-7194.3958001907968</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>-6481.3112785690437</v>
+        <v>-6481.3112790974083</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>17944.604622718001</v>
+        <v>17944.604622189636</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17739,31 +17746,31 @@
       </c>
       <c r="U10">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>-11298.242118970367</v>
+        <v>-11298.242119999999</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>-8871.8421189703658</v>
+        <v>-8871.8421199999975</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>79788.957881029637</v>
+        <v>79788.957880000002</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>-12097.442118970366</v>
+        <v>-12097.442119999998</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>-9915.8421189703658</v>
+        <v>-9915.8421199999975</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>69881.75788102964</v>
+        <v>69881.757880000005</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -17771,27 +17778,27 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>-5270.7133318961305</v>
+        <v>-5270.713332376461</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>-4138.7798245552331</v>
+        <v>-4138.7798250355636</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>37222.137710743875</v>
+        <v>37222.137710263545</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>-5643.5460301597486</v>
+        <v>-5643.5460306400792</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>-4625.8135294941949</v>
+        <v>-4625.8135299745254</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>32600.355793530009</v>
+        <v>32600.355793049679</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17847,31 +17854,31 @@
       </c>
       <c r="U11">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>-8418.2421189703655</v>
+        <v>-8418.2421199999972</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>-4681.4421189703662</v>
+        <v>-4681.4421199999979</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>121239.35788102963</v>
+        <v>121239.35788</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>-9505.4421189703662</v>
+        <v>-9505.4421199999979</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>-6143.0421189703666</v>
+        <v>-6143.0421199999982</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>107184.95788102964</v>
+        <v>107184.95788</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17879,27 +17886,27 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>-3570.1564335382709</v>
+        <v>-3570.1564339749352</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>-1985.3884532039704</v>
+        <v>-1985.3884536406347</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>51417.322930353992</v>
+        <v>51417.322929917333</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>-4031.2353642328362</v>
+        <v>-4031.2353646695005</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>-2605.249532217194</v>
+        <v>-2605.2495326538583</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>45456.885362699752</v>
+        <v>45456.885362263085</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17956,31 +17963,31 @@
       </c>
       <c r="U12">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>-4566.2421189703655</v>
+        <v>-4566.2421199999972</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>1035.3578810296349</v>
+        <v>1035.3578800000032</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>146122.55788102964</v>
+        <v>146122.55788000001</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>-6042.2421189703655</v>
+        <v>-6042.2421199999972</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>-1002.2421189703673</v>
+        <v>-1002.242119999999</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>129576.95788102964</v>
+        <v>129576.95788</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -17988,27 +17995,27 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>-1760.4840068795088</v>
+        <v>-1760.4840072764764</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>399.17528318895495</v>
+        <v>399.17528279198734</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>56336.571625309276</v>
+        <v>56336.571624912307</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>-2329.545902077497</v>
+        <v>-2329.5459024744646</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>-386.40772335265922</v>
+        <v>-386.40772374962683</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>49957.526575724019</v>
+        <v>49957.526575327051</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18064,31 +18071,31 @@
       </c>
       <c r="U13">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>524.15788102963415</v>
+        <v>524.15788000000248</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>8703.3578810296349</v>
+        <v>8703.3578800000032</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>151450.55788102964</v>
+        <v>151450.55788000001</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>-1463.0421189703666</v>
+        <v>-1463.0421199999982</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>5902.5578810296356</v>
+        <v>5902.5578800000039</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>134372.15788102965</v>
+        <v>134372.15788000001</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -18096,27 +18103,27 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>183.71413966598013</v>
+        <v>183.7141393051005</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>3050.4738423041836</v>
+        <v>3050.4738419433038</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>53082.496610354377</v>
+        <v>53082.496609993497</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>-512.78733738344272</v>
+        <v>-512.78733774432237</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>2068.8105286367004</v>
+        <v>2068.8105282758206</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>47096.621597451369</v>
+        <v>47096.621597090489</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18166,31 +18173,31 @@
       </c>
       <c r="U14">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>7155.3578810296349</v>
+        <v>7155.3578800000032</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>18740.157881029638</v>
+        <v>18740.157880000006</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>151695.35788102963</v>
+        <v>151695.35788</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>4505.7578810296327</v>
+        <v>4505.757880000001</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>14931.357881029635</v>
+        <v>14931.357880000003</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>134595.35788102963</v>
+        <v>134595.35788</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -18198,27 +18205,27 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>2279.9175326427167</v>
+        <v>2279.9175323146446</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>5971.191829653656</v>
+        <v>5971.191829325584</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>48334.815924497656</v>
+        <v>48334.815924169583</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>1435.6733180373553</v>
+        <v>1435.6733177092829</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>4757.5907711584496</v>
+        <v>4757.5907708303766</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>42886.228941650559</v>
+        <v>42886.228941322479</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18268,31 +18275,31 @@
       </c>
       <c r="U15">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>15629.757881029636</v>
+        <v>15629.757880000005</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>31419.357881029635</v>
+        <v>31419.357880000003</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>151738.55788102964</v>
+        <v>151738.55788000001</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>12137.757881029633</v>
+        <v>12137.757880000001</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>26343.357881029635</v>
+        <v>26343.357880000003</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>134631.35788102963</v>
+        <v>134631.35788</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -18300,27 +18307,27 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>4527.3841220430577</v>
+        <v>4527.3841217448098</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>9101.0688123334621</v>
+        <v>9101.0688120352152</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>43953.255250747949</v>
+        <v>43953.2552504497</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>3515.8761080025424</v>
+        <v>3515.876107704295</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>7630.7324207900356</v>
+        <v>7630.7324204917877</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>38997.908773716481</v>
+        <v>38997.908773418232</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18370,31 +18377,31 @@
       </c>
       <c r="U16">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>26156.157881029638</v>
+        <v>26156.157880000006</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>46712.157881029634</v>
+        <v>46712.157879999999</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>151760.15788102965</v>
+        <v>151760.15788000001</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>21605.757881029636</v>
+        <v>21605.757880000005</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>40109.75788102964</v>
+        <v>40109.757880000005</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>134652.95788102964</v>
+        <v>134652.95788</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -18402,27 +18409,27 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>6887.7338626393876</v>
+        <v>6887.7338623682526</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>12300.771126155161</v>
+        <v>12300.771125884026</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>39963.192728500231</v>
+        <v>39963.192728229093</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>5689.4713230450016</v>
+        <v>5689.4713227738675</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>10562.152852724701</v>
+        <v>10562.152852453566</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>35458.332294835258</v>
+        <v>35458.332294564127</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18472,31 +18479,31 @@
       </c>
       <c r="U17">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>38806.557881029628</v>
+        <v>38806.55788</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>64092.957881029637</v>
+        <v>64092.957880000002</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>151774.55788102964</v>
+        <v>151774.55788000001</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>32996.157881029634</v>
+        <v>32996.157880000006</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>55755.357881029646</v>
+        <v>55755.35788000001</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>134667.35788102963</v>
+        <v>134667.35788</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -18504,27 +18511,27 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>9289.981420102742</v>
+        <v>9289.9814198562563</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>15343.344537271156</v>
+        <v>15343.34453702467</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>36333.622453238393</v>
+        <v>36333.622452991905</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>7899.0178564481557</v>
+        <v>7899.0178562016708</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>13347.389386450823</v>
+        <v>13347.389386204335</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>32238.294786270239</v>
+        <v>32238.294786023755</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18574,31 +18581,31 @@
       </c>
       <c r="U18">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>53343.357881029646</v>
+        <v>53343.35788000001</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>82424.157881029634</v>
+        <v>82424.157879999999</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>151781.75788102965</v>
+        <v>151781.75788000002</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>46078.557881029628</v>
+        <v>46078.55788</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>72250.557881029643</v>
+        <v>72250.557880000008</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>134674.55788102964</v>
+        <v>134674.55788000001</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -18606,27 +18613,27 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>11609.068875793091</v>
+        <v>11609.068875569012</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>17937.898247879239</v>
+        <v>17937.898247655161</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>33032.132796358048</v>
+        <v>33032.13279613397</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>10028.036730104815</v>
+        <v>10028.03672988074</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>15723.826472004586</v>
+        <v>15723.826471780507</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>29309.10764456882</v>
+        <v>29309.107644344738</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18676,31 +18683,31 @@
       </c>
       <c r="U19">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>69183.357881029646</v>
+        <v>69183.35788000001</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>100107.35788102965</v>
+        <v>100107.35788000001</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>151781.75788102965</v>
+        <v>151781.75788000002</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>60334.557881029643</v>
+        <v>60334.557880000008</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>88162.557881029643</v>
+        <v>88162.557880000008</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>134674.55788102964</v>
+        <v>134674.55788000001</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -18708,27 +18715,27 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>13687.558533371857</v>
+        <v>13687.558533168149</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>19805.707074439633</v>
+        <v>19805.707074235925</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>30029.211633052772</v>
+        <v>30029.211632849063</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>11936.870627208342</v>
+        <v>11936.870627004633</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>17442.4920733613</v>
+        <v>17442.492073157591</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>26644.643313244378</v>
+        <v>26644.643313040673</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18778,31 +18785,31 @@
       </c>
       <c r="U20">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>85368.957881029637</v>
+        <v>85368.957880000002</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>115572.95788102964</v>
+        <v>115572.95788</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>151788.95788102964</v>
+        <v>151788.95788</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>74900.157881029634</v>
+        <v>74900.157879999999</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>102087.35788102965</v>
+        <v>102087.35788000001</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>134681.75788102965</v>
+        <v>134681.75788000002</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18810,27 +18817,27 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>15354.357460292618</v>
+        <v>15354.357460107429</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>20786.812350710505</v>
+        <v>20786.812350525317</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>27300.578286062588</v>
+        <v>27300.5782858774</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>13471.451760491042</v>
+        <v>13471.451760305852</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>18361.308653510816</v>
+        <v>18361.308653325628</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>24223.69799532769</v>
+        <v>24223.697995142502</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18880,31 +18887,31 @@
       </c>
       <c r="U21">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>100769.75788102964</v>
+        <v>100769.75788</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>127820.15788102965</v>
+        <v>127820.15788000001</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>151788.95788102964</v>
+        <v>151788.95788</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>88760.157881029634</v>
+        <v>88760.157879999999</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>113103.35788102963</v>
+        <v>113103.35788</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>134681.75788102965</v>
+        <v>134681.75788000002</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -18912,27 +18919,27 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>16476.660647205845</v>
+        <v>16476.660647037494</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>20899.617202260568</v>
+        <v>20899.617202092213</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>24818.707532784163</v>
+        <v>24818.707532615812</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>14512.995080575216</v>
+        <v>14512.995080406863</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>18493.302802864277</v>
+        <v>18493.302802695925</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>22021.543632116078</v>
+        <v>22021.543631947723</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18982,31 +18989,31 @@
       </c>
       <c r="U22">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>19283.042119999998</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>114341.75788102965</v>
+        <v>114341.75788000002</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>136654.55788102964</v>
+        <v>136654.55788000001</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>151788.95788102964</v>
+        <v>151788.95788</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>100978.55788102964</v>
+        <v>100978.55788000001</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>121059.35788102963</v>
+        <v>121059.35788</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>134681.75788102965</v>
+        <v>134681.75788000002</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -19014,27 +19021,27 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>16996.17372609445</v>
+        <v>16996.1737259414</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>20312.829269471556</v>
+        <v>20312.829269318507</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>22562.461393440153</v>
+        <v>22562.461393287103</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>15009.819196082213</v>
+        <v>15009.819195929165</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>17994.702161709432</v>
+        <v>17994.702161556383</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>20019.585120105527</v>
+        <v>20019.58511995248</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
